--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1395.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1395.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.444166429977896</v>
+        <v>1.187598586082458</v>
       </c>
       <c r="B1">
-        <v>2.484252123314217</v>
+        <v>2.1838538646698</v>
       </c>
       <c r="C1">
-        <v>2.935213073721414</v>
+        <v>6.379278659820557</v>
       </c>
       <c r="D1">
-        <v>3.379729033027346</v>
+        <v>2.303624868392944</v>
       </c>
       <c r="E1">
-        <v>1.572825396973638</v>
+        <v>1.19311511516571</v>
       </c>
     </row>
   </sheetData>
